--- a/backend/data/exports/Export_Année_2025_avec_tentatives.xlsx
+++ b/backend/data/exports/Export_Année_2025_avec_tentatives.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -133,10 +133,13 @@
     <t>isaure</t>
   </si>
   <si>
-    <t>plot plot</t>
-  </si>
-  <si>
     <t>tentative non-payé</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>emma</t>
   </si>
   <si>
     <t>15/07/2025</t>
@@ -654,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -797,81 +800,81 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -882,10 +885,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -906,68 +909,68 @@
         <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -979,13 +982,13 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
@@ -997,59 +1000,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>37</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -1081,16 +1084,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -1120,59 +1123,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>41</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -1181,39 +1184,39 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1222,39 +1225,39 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -1263,39 +1266,39 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -1327,98 +1330,98 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -1532,75 +1535,75 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
         <v>27</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
@@ -1614,34 +1617,34 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -1655,139 +1658,139 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -1819,329 +1822,288 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
         <v>24</v>
       </c>
     </row>
